--- a/galaxy-registration/GalaxyDetails.xlsx
+++ b/galaxy-registration/GalaxyDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="220" windowWidth="30120" windowHeight="21960" tabRatio="642"/>
+    <workbookView xWindow="3420" yWindow="420" windowWidth="30120" windowHeight="21960" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="2012-10-11 Script - register" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1108">
   <si>
     <t>POGS_IC0089.fits</t>
   </si>
@@ -3369,6 +3369,9 @@
   </si>
   <si>
     <t># Program</t>
+  </si>
+  <si>
+    <t>Run_Id</t>
   </si>
 </sst>
 </file>
@@ -3897,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H245"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="L245" sqref="L245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3913,9 +3916,10 @@
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>848</v>
       </c>
@@ -3940,8 +3944,11 @@
       <c r="H1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="str">
         <f>LOOKUP(D2,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -3971,8 +3978,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>LOOKUP(D3,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4002,8 +4012,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>LOOKUP(D4,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4033,8 +4046,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="str">
         <f>LOOKUP(D5,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4064,8 +4080,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="str">
         <f>LOOKUP(D6,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4095,8 +4114,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="str">
         <f>LOOKUP(D7,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4126,8 +4148,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="str">
         <f>LOOKUP(D8,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4157,8 +4182,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="str">
         <f>LOOKUP(D9,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4188,8 +4216,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="str">
         <f>LOOKUP(D10,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4219,8 +4250,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="str">
         <f>LOOKUP(D11,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4250,8 +4284,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="str">
         <f>LOOKUP(D12,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4281,8 +4318,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="str">
         <f>LOOKUP(D13,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4312,8 +4352,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="str">
         <f>LOOKUP(D14,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4343,8 +4386,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="str">
         <f>LOOKUP(D15,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4374,8 +4420,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="str">
         <f>LOOKUP(D16,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4405,8 +4454,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="str">
         <f>LOOKUP(D17,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4436,8 +4488,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="str">
         <f>LOOKUP(D18,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4467,8 +4522,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="str">
         <f>LOOKUP(D19,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4498,8 +4556,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="str">
         <f>LOOKUP(D20,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4529,8 +4590,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="str">
         <f>LOOKUP(D21,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4560,8 +4624,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="str">
         <f>LOOKUP(D22,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4591,8 +4658,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="str">
         <f>LOOKUP(D23,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4622,8 +4692,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="str">
         <f>LOOKUP(D24,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4653,8 +4726,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="str">
         <f>LOOKUP(D25,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4684,8 +4760,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="str">
         <f>LOOKUP(D26,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4715,8 +4794,11 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="str">
         <f>LOOKUP(D27,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4746,8 +4828,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="str">
         <f>LOOKUP(D28,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4777,8 +4862,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="str">
         <f>LOOKUP(D29,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4808,8 +4896,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="str">
         <f>LOOKUP(D30,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4839,8 +4930,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="str">
         <f>LOOKUP(D31,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4870,8 +4964,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="str">
         <f>LOOKUP(D32,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4901,8 +4998,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="str">
         <f>LOOKUP(D33,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -4932,8 +5032,11 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="str">
         <f>LOOKUP(D34,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4963,8 +5066,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="str">
         <f>LOOKUP(D35,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -4994,8 +5100,11 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="str">
         <f>LOOKUP(D36,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5025,8 +5134,11 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="str">
         <f>LOOKUP(D37,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5056,8 +5168,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="str">
         <f>LOOKUP(D38,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5087,8 +5202,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="str">
         <f>LOOKUP(D39,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5118,8 +5236,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="str">
         <f>LOOKUP(D40,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5149,8 +5270,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="str">
         <f>LOOKUP(D41,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5180,8 +5304,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="str">
         <f>LOOKUP(D42,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5211,8 +5338,11 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="str">
         <f>LOOKUP(D43,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5242,8 +5372,11 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="str">
         <f>LOOKUP(D44,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5273,8 +5406,11 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="str">
         <f>LOOKUP(D45,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5304,8 +5440,11 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="str">
         <f>LOOKUP(D46,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5335,8 +5474,11 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="str">
         <f>LOOKUP(D47,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5366,8 +5508,11 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="str">
         <f>LOOKUP(D48,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5397,8 +5542,11 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="str">
         <f>LOOKUP(D49,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5428,8 +5576,11 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="str">
         <f>LOOKUP(D50,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5459,8 +5610,11 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="str">
         <f>LOOKUP(D51,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5490,8 +5644,11 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="str">
         <f>LOOKUP(D52,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5521,8 +5678,11 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="str">
         <f>LOOKUP(D53,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5552,8 +5712,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="str">
         <f>LOOKUP(D54,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5583,8 +5746,11 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="str">
         <f>LOOKUP(D55,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5614,8 +5780,11 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="str">
         <f>LOOKUP(D56,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5645,8 +5814,11 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="str">
         <f>LOOKUP(D57,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5676,8 +5848,11 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="str">
         <f>LOOKUP(D58,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5707,8 +5882,11 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="str">
         <f>LOOKUP(D59,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5738,8 +5916,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="str">
         <f>LOOKUP(D60,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5769,8 +5950,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="str">
         <f>LOOKUP(D61,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5800,8 +5984,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="str">
         <f>LOOKUP(D62,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5831,8 +6018,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="str">
         <f>LOOKUP(D63,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5862,8 +6052,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="str">
         <f>LOOKUP(D64,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -5893,8 +6086,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="str">
         <f>LOOKUP(D65,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5924,8 +6120,11 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="str">
         <f>LOOKUP(D66,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5955,8 +6154,11 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="str">
         <f>LOOKUP(D67,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -5986,8 +6188,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="str">
         <f>LOOKUP(D68,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6017,8 +6222,11 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="str">
         <f>LOOKUP(D69,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6048,8 +6256,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="str">
         <f>LOOKUP(D70,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6079,8 +6290,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="str">
         <f>LOOKUP(D71,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6110,8 +6324,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="str">
         <f>LOOKUP(D72,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6141,8 +6358,11 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="str">
         <f>LOOKUP(D73,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6172,8 +6392,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="str">
         <f>LOOKUP(D74,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6203,8 +6426,11 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="str">
         <f>LOOKUP(D75,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6234,8 +6460,11 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="str">
         <f>LOOKUP(D76,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6265,8 +6494,11 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="str">
         <f>LOOKUP(D77,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6296,8 +6528,11 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="str">
         <f>LOOKUP(D78,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6327,8 +6562,11 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="str">
         <f>LOOKUP(D79,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6358,8 +6596,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="str">
         <f>LOOKUP(D80,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6389,8 +6630,11 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="str">
         <f>LOOKUP(D81,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6420,8 +6664,11 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="str">
         <f>LOOKUP(D82,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6451,8 +6698,11 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="str">
         <f>LOOKUP(D83,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6482,8 +6732,11 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="str">
         <f>LOOKUP(D84,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6513,8 +6766,11 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="str">
         <f>LOOKUP(D85,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6544,8 +6800,11 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="str">
         <f>LOOKUP(D86,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6575,8 +6834,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="str">
         <f>LOOKUP(D87,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6606,8 +6868,11 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="str">
         <f>LOOKUP(D88,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6637,8 +6902,11 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="str">
         <f>LOOKUP(D89,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6668,8 +6936,11 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="str">
         <f>LOOKUP(D90,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6699,8 +6970,11 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="str">
         <f>LOOKUP(D91,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6730,8 +7004,11 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="str">
         <f>LOOKUP(D92,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6761,8 +7038,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="str">
         <f>LOOKUP(D93,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -6792,8 +7072,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="str">
         <f>LOOKUP(D94,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6823,8 +7106,11 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="str">
         <f>LOOKUP(D95,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6854,8 +7140,11 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="str">
         <f>LOOKUP(D96,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6885,8 +7174,11 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="str">
         <f>LOOKUP(D97,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6916,8 +7208,11 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="str">
         <f>LOOKUP(D98,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6947,8 +7242,11 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="str">
         <f>LOOKUP(D99,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -6978,8 +7276,11 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="str">
         <f>LOOKUP(D100,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7009,8 +7310,11 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="str">
         <f>LOOKUP(D101,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7040,8 +7344,11 @@
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="str">
         <f>LOOKUP(D102,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7071,8 +7378,11 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="str">
         <f>LOOKUP(D103,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7102,8 +7412,11 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="str">
         <f>LOOKUP(D104,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7133,8 +7446,11 @@
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="str">
         <f>LOOKUP(D105,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7164,8 +7480,11 @@
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="str">
         <f>LOOKUP(D106,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7195,8 +7514,11 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="str">
         <f>LOOKUP(D107,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7226,8 +7548,11 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="str">
         <f>LOOKUP(D108,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7257,8 +7582,11 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="str">
         <f>LOOKUP(D109,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7288,8 +7616,11 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="str">
         <f>LOOKUP(D110,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7319,8 +7650,11 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="str">
         <f>LOOKUP(D111,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7350,8 +7684,11 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="str">
         <f>LOOKUP(D112,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7381,8 +7718,11 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="str">
         <f>LOOKUP(D113,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7412,8 +7752,11 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="str">
         <f>LOOKUP(D114,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7443,8 +7786,11 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="str">
         <f>LOOKUP(D115,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7474,8 +7820,11 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="str">
         <f>LOOKUP(D116,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7505,8 +7854,11 @@
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="str">
         <f>LOOKUP(D117,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7536,8 +7888,11 @@
       <c r="H117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="str">
         <f>LOOKUP(D118,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7567,8 +7922,11 @@
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="str">
         <f>LOOKUP(D119,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7598,8 +7956,11 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="str">
         <f>LOOKUP(D120,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7629,8 +7990,11 @@
       <c r="H120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="str">
         <f>LOOKUP(D121,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7660,8 +8024,11 @@
       <c r="H121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="str">
         <f>LOOKUP(D122,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7691,8 +8058,11 @@
       <c r="H122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="str">
         <f>LOOKUP(D123,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7722,8 +8092,11 @@
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="str">
         <f>LOOKUP(D124,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7753,8 +8126,11 @@
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="str">
         <f>LOOKUP(D125,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7784,8 +8160,11 @@
       <c r="H125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="str">
         <f>LOOKUP(D126,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7815,8 +8194,11 @@
       <c r="H126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="str">
         <f>LOOKUP(D127,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7846,8 +8228,11 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="str">
         <f>LOOKUP(D128,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7877,8 +8262,11 @@
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="str">
         <f>LOOKUP(D129,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7908,8 +8296,11 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="str">
         <f>LOOKUP(D130,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -7939,8 +8330,11 @@
       <c r="H130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="str">
         <f>LOOKUP(D131,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -7970,8 +8364,11 @@
       <c r="H131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="str">
         <f>LOOKUP(D132,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8001,8 +8398,11 @@
       <c r="H132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="str">
         <f>LOOKUP(D133,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8032,8 +8432,11 @@
       <c r="H133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="str">
         <f>LOOKUP(D134,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8063,8 +8466,11 @@
       <c r="H134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="str">
         <f>LOOKUP(D135,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8094,8 +8500,11 @@
       <c r="H135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="str">
         <f>LOOKUP(D136,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8125,8 +8534,11 @@
       <c r="H136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="str">
         <f>LOOKUP(D137,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8156,8 +8568,11 @@
       <c r="H137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="str">
         <f>LOOKUP(D138,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8187,8 +8602,11 @@
       <c r="H138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="str">
         <f>LOOKUP(D139,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8218,8 +8636,11 @@
       <c r="H139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="str">
         <f>LOOKUP(D140,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8249,8 +8670,11 @@
       <c r="H140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="str">
         <f>LOOKUP(D141,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8280,8 +8704,11 @@
       <c r="H141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="str">
         <f>LOOKUP(D142,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8311,8 +8738,11 @@
       <c r="H142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="str">
         <f>LOOKUP(D143,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8342,8 +8772,11 @@
       <c r="H143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="str">
         <f>LOOKUP(D144,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8373,8 +8806,11 @@
       <c r="H144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="str">
         <f>LOOKUP(D145,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8404,8 +8840,11 @@
       <c r="H145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="str">
         <f>LOOKUP(D146,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8435,8 +8874,11 @@
       <c r="H146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="str">
         <f>LOOKUP(D147,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8466,8 +8908,11 @@
       <c r="H147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="str">
         <f>LOOKUP(D148,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8497,8 +8942,11 @@
       <c r="H148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="str">
         <f>LOOKUP(D149,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8528,8 +8976,11 @@
       <c r="H149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="str">
         <f>LOOKUP(D150,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8559,8 +9010,11 @@
       <c r="H150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="str">
         <f>LOOKUP(D151,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8590,8 +9044,11 @@
       <c r="H151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="str">
         <f>LOOKUP(D152,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8621,8 +9078,11 @@
       <c r="H152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="str">
         <f>LOOKUP(D153,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8652,8 +9112,11 @@
       <c r="H153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="str">
         <f>LOOKUP(D154,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8683,8 +9146,11 @@
       <c r="H154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="str">
         <f>LOOKUP(D155,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8714,8 +9180,11 @@
       <c r="H155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="str">
         <f>LOOKUP(D156,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8745,8 +9214,11 @@
       <c r="H156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="str">
         <f>LOOKUP(D157,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8776,8 +9248,11 @@
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="str">
         <f>LOOKUP(D158,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8807,8 +9282,11 @@
       <c r="H158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="str">
         <f>LOOKUP(D159,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8838,8 +9316,11 @@
       <c r="H159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="str">
         <f>LOOKUP(D160,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8869,8 +9350,11 @@
       <c r="H160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="str">
         <f>LOOKUP(D161,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8900,8 +9384,11 @@
       <c r="H161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="str">
         <f>LOOKUP(D162,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -8931,8 +9418,11 @@
       <c r="H162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="str">
         <f>LOOKUP(D163,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8962,8 +9452,11 @@
       <c r="H163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="str">
         <f>LOOKUP(D164,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -8993,8 +9486,11 @@
       <c r="H164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="str">
         <f>LOOKUP(D165,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9024,8 +9520,11 @@
       <c r="H165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="str">
         <f>LOOKUP(D166,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9055,8 +9554,11 @@
       <c r="H166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="str">
         <f>LOOKUP(D167,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9086,8 +9588,11 @@
       <c r="H167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="str">
         <f>LOOKUP(D168,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9117,8 +9622,11 @@
       <c r="H168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="str">
         <f>LOOKUP(D169,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9148,8 +9656,11 @@
       <c r="H169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="str">
         <f>LOOKUP(D170,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9179,8 +9690,11 @@
       <c r="H170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="str">
         <f>LOOKUP(D171,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9210,8 +9724,11 @@
       <c r="H171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="str">
         <f>LOOKUP(D172,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9241,8 +9758,11 @@
       <c r="H172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="str">
         <f>LOOKUP(D173,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9272,8 +9792,11 @@
       <c r="H173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="str">
         <f>LOOKUP(D174,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9303,8 +9826,11 @@
       <c r="H174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="str">
         <f>LOOKUP(D175,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9334,8 +9860,11 @@
       <c r="H175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="str">
         <f>LOOKUP(D176,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9365,8 +9894,11 @@
       <c r="H176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="str">
         <f>LOOKUP(D177,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9396,8 +9928,11 @@
       <c r="H177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="str">
         <f>LOOKUP(D178,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9427,8 +9962,11 @@
       <c r="H178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="str">
         <f>LOOKUP(D179,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9458,8 +9996,11 @@
       <c r="H179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="str">
         <f>LOOKUP(D180,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9489,8 +10030,11 @@
       <c r="H180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="str">
         <f>LOOKUP(D181,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9520,8 +10064,11 @@
       <c r="H181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="str">
         <f>LOOKUP(D182,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9551,8 +10098,11 @@
       <c r="H182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="str">
         <f>LOOKUP(D183,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9582,8 +10132,11 @@
       <c r="H183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="str">
         <f>LOOKUP(D184,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9613,8 +10166,11 @@
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="str">
         <f>LOOKUP(D185,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9644,8 +10200,11 @@
       <c r="H185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="str">
         <f>LOOKUP(D186,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9675,8 +10234,11 @@
       <c r="H186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="str">
         <f>LOOKUP(D187,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9706,8 +10268,11 @@
       <c r="H187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="str">
         <f>LOOKUP(D188,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9737,8 +10302,11 @@
       <c r="H188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="str">
         <f>LOOKUP(D189,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9768,8 +10336,11 @@
       <c r="H189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="str">
         <f>LOOKUP(D190,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9799,8 +10370,11 @@
       <c r="H190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="str">
         <f>LOOKUP(D191,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9830,8 +10404,11 @@
       <c r="H191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="str">
         <f>LOOKUP(D192,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9861,8 +10438,11 @@
       <c r="H192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="str">
         <f>LOOKUP(D193,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9892,8 +10472,11 @@
       <c r="H193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="str">
         <f>LOOKUP(D194,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9923,8 +10506,11 @@
       <c r="H194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="str">
         <f>LOOKUP(D195,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -9954,8 +10540,11 @@
       <c r="H195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="str">
         <f>LOOKUP(D196,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -9985,8 +10574,11 @@
       <c r="H196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="str">
         <f>LOOKUP(D197,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10016,8 +10608,11 @@
       <c r="H197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="str">
         <f>LOOKUP(D198,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10047,8 +10642,11 @@
       <c r="H198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="str">
         <f>LOOKUP(D199,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10078,8 +10676,11 @@
       <c r="H199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="str">
         <f>LOOKUP(D200,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10109,8 +10710,11 @@
       <c r="H200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="str">
         <f>LOOKUP(D201,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10140,8 +10744,11 @@
       <c r="H201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="str">
         <f>LOOKUP(D202,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10171,8 +10778,11 @@
       <c r="H202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="str">
         <f>LOOKUP(D203,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10202,8 +10812,11 @@
       <c r="H203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="str">
         <f>LOOKUP(D204,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10233,8 +10846,11 @@
       <c r="H204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="str">
         <f>LOOKUP(D205,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10264,8 +10880,11 @@
       <c r="H205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="str">
         <f>LOOKUP(D206,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10295,8 +10914,11 @@
       <c r="H206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="str">
         <f>LOOKUP(D207,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10326,8 +10948,11 @@
       <c r="H207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="str">
         <f>LOOKUP(D208,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10357,8 +10982,11 @@
       <c r="H208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="str">
         <f>LOOKUP(D209,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10388,8 +11016,11 @@
       <c r="H209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="str">
         <f>LOOKUP(D210,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10419,8 +11050,11 @@
       <c r="H210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="str">
         <f>LOOKUP(D211,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10450,8 +11084,11 @@
       <c r="H211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="str">
         <f>LOOKUP(D212,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10481,8 +11118,11 @@
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="str">
         <f>LOOKUP(D213,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10512,8 +11152,11 @@
       <c r="H213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="str">
         <f>LOOKUP(D214,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10543,8 +11186,11 @@
       <c r="H214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="str">
         <f>LOOKUP(D215,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10574,8 +11220,11 @@
       <c r="H215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="str">
         <f>LOOKUP(D216,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10605,8 +11254,11 @@
       <c r="H216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="str">
         <f>LOOKUP(D217,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10636,8 +11288,11 @@
       <c r="H217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="str">
         <f>LOOKUP(D218,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10667,8 +11322,11 @@
       <c r="H218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="str">
         <f>LOOKUP(D219,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10698,8 +11356,11 @@
       <c r="H219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="str">
         <f>LOOKUP(D220,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10729,8 +11390,11 @@
       <c r="H220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="str">
         <f>LOOKUP(D221,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10760,8 +11424,11 @@
       <c r="H221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="str">
         <f>LOOKUP(D222,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10791,8 +11458,11 @@
       <c r="H222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="str">
         <f>LOOKUP(D223,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10822,8 +11492,11 @@
       <c r="H223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="str">
         <f>LOOKUP(D224,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10853,8 +11526,11 @@
       <c r="H224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="str">
         <f>LOOKUP(D225,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10884,8 +11560,11 @@
       <c r="H225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="str">
         <f>LOOKUP(D226,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10915,8 +11594,11 @@
       <c r="H226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="str">
         <f>LOOKUP(D227,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -10946,8 +11628,11 @@
       <c r="H227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="str">
         <f>LOOKUP(D228,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -10977,8 +11662,11 @@
       <c r="H228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="str">
         <f>LOOKUP(D229,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11008,8 +11696,11 @@
       <c r="H229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="str">
         <f>LOOKUP(D230,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11039,8 +11730,11 @@
       <c r="H230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="str">
         <f>LOOKUP(D231,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -11070,8 +11764,11 @@
       <c r="H231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="str">
         <f>LOOKUP(D232,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -11101,8 +11798,11 @@
       <c r="H232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="str">
         <f>LOOKUP(D233,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11132,8 +11832,11 @@
       <c r="H233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="str">
         <f>LOOKUP(D234,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11163,8 +11866,11 @@
       <c r="H234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="str">
         <f>LOOKUP(D235,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11194,8 +11900,11 @@
       <c r="H235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="str">
         <f>LOOKUP(D236,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11225,8 +11934,11 @@
       <c r="H236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="str">
         <f>LOOKUP(D237,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11256,8 +11968,11 @@
       <c r="H237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="str">
         <f>LOOKUP(D238,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -11287,8 +12002,11 @@
       <c r="H238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="str">
         <f>LOOKUP(D239,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11318,8 +12036,11 @@
       <c r="H239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="str">
         <f>LOOKUP(D240,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -11349,8 +12070,11 @@
       <c r="H240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="str">
         <f>LOOKUP(D241,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -11380,8 +12104,11 @@
       <c r="H241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="str">
         <f>LOOKUP(D242,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11411,8 +12138,11 @@
       <c r="H242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="str">
         <f>LOOKUP(D243,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11442,8 +12172,11 @@
       <c r="H243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" t="str">
         <f>LOOKUP(D244,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v/>
@@ -11473,8 +12206,11 @@
       <c r="H244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="str">
         <f>LOOKUP(D245,{0,0.005,0.02,0.03,0.045,0.055,0.07,0.08,0.095,0.105},{"","#","","#","","#","","#","","#"})</f>
         <v>#</v>
@@ -11504,38 +12240,41 @@
       <c r="H245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" s="5"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:9">
       <c r="B247" s="5"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:9">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:9">
       <c r="B249" s="5"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:9">
       <c r="B250" s="5"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:9">
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:9">
       <c r="B252" s="5"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:9">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:9">
       <c r="B254" s="5"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:9">
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:9">
       <c r="B256" s="5"/>
     </row>
     <row r="257" spans="2:2">
@@ -15974,10 +16713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15989,9 +16728,10 @@
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1106</v>
       </c>
@@ -16013,8 +16753,11 @@
       <c r="G1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>847</v>
       </c>
@@ -16040,8 +16783,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>847</v>
       </c>
@@ -16067,8 +16813,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>847</v>
       </c>
@@ -16094,8 +16843,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>847</v>
       </c>
@@ -16121,8 +16873,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>847</v>
       </c>
@@ -16148,8 +16903,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>847</v>
       </c>
@@ -16175,8 +16933,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>847</v>
       </c>
@@ -16202,8 +16963,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>847</v>
       </c>
@@ -16229,8 +16993,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>847</v>
       </c>
@@ -16256,8 +17023,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>847</v>
       </c>
@@ -16283,8 +17053,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>847</v>
       </c>
@@ -16310,8 +17083,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>847</v>
       </c>
@@ -16337,8 +17113,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>847</v>
       </c>
@@ -16364,8 +17143,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>847</v>
       </c>
@@ -16391,8 +17173,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>847</v>
       </c>
@@ -16418,8 +17203,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>847</v>
       </c>
@@ -16445,8 +17233,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>847</v>
       </c>
@@ -16472,8 +17263,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>847</v>
       </c>
@@ -16499,8 +17293,11 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>847</v>
       </c>
@@ -16526,8 +17323,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>847</v>
       </c>
@@ -16553,8 +17353,11 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>847</v>
       </c>
@@ -16580,8 +17383,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>847</v>
       </c>
@@ -16607,8 +17413,11 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>847</v>
       </c>
@@ -16634,8 +17443,11 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
         <v>847</v>
       </c>
@@ -16661,8 +17473,11 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
         <v>847</v>
       </c>
@@ -16688,8 +17503,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
         <v>847</v>
       </c>
@@ -16715,8 +17533,11 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
         <v>847</v>
       </c>
@@ -16742,8 +17563,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
         <v>847</v>
       </c>
@@ -16769,8 +17593,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
         <v>847</v>
       </c>
@@ -16796,8 +17623,11 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
         <v>847</v>
       </c>
@@ -16823,8 +17653,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
         <v>847</v>
       </c>
@@ -16850,8 +17683,11 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
         <v>847</v>
       </c>
@@ -16877,8 +17713,11 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
         <v>847</v>
       </c>
@@ -16904,8 +17743,11 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
         <v>847</v>
       </c>
@@ -16931,8 +17773,11 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
         <v>847</v>
       </c>
@@ -16958,8 +17803,11 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
         <v>847</v>
       </c>
@@ -16985,8 +17833,11 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
         <v>847</v>
       </c>
@@ -17012,8 +17863,11 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
         <v>847</v>
       </c>
@@ -17039,8 +17893,11 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
         <v>847</v>
       </c>
@@ -17066,8 +17923,11 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
         <v>847</v>
       </c>
@@ -17093,8 +17953,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
         <v>847</v>
       </c>
@@ -17120,8 +17983,11 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
         <v>847</v>
       </c>
@@ -17147,8 +18013,11 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
         <v>847</v>
       </c>
@@ -17174,8 +18043,11 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="5" t="s">
         <v>847</v>
       </c>
@@ -17201,8 +18073,11 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="5" t="s">
         <v>847</v>
       </c>
@@ -17228,8 +18103,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="5" t="s">
         <v>847</v>
       </c>
@@ -17255,8 +18133,11 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
         <v>847</v>
       </c>
@@ -17282,8 +18163,11 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="5" t="s">
         <v>847</v>
       </c>
@@ -17309,8 +18193,11 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
         <v>847</v>
       </c>
@@ -17336,8 +18223,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
         <v>847</v>
       </c>
@@ -17363,8 +18253,11 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
         <v>847</v>
       </c>
@@ -17390,8 +18283,11 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
         <v>847</v>
       </c>
@@ -17417,8 +18313,11 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
         <v>847</v>
       </c>
@@ -17444,8 +18343,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
         <v>847</v>
       </c>
@@ -17471,8 +18373,11 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="5" t="s">
         <v>847</v>
       </c>
@@ -17498,8 +18403,11 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="5" t="s">
         <v>847</v>
       </c>
@@ -17525,8 +18433,11 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
         <v>847</v>
       </c>
@@ -17552,8 +18463,11 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
         <v>847</v>
       </c>
@@ -17579,8 +18493,11 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
         <v>847</v>
       </c>
@@ -17606,8 +18523,11 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
         <v>847</v>
       </c>
@@ -17633,8 +18553,11 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
         <v>847</v>
       </c>
@@ -17660,8 +18583,11 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="5" t="s">
         <v>847</v>
       </c>
@@ -17687,8 +18613,11 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
         <v>847</v>
       </c>
@@ -17714,8 +18643,11 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="5" t="s">
         <v>847</v>
       </c>
@@ -17741,8 +18673,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="5" t="s">
         <v>847</v>
       </c>
@@ -17768,8 +18703,11 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="5" t="s">
         <v>847</v>
       </c>
@@ -17795,8 +18733,11 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="5" t="s">
         <v>847</v>
       </c>
@@ -17822,8 +18763,11 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="5" t="s">
         <v>847</v>
       </c>
@@ -17849,8 +18793,11 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="5" t="s">
         <v>847</v>
       </c>
@@ -17876,8 +18823,11 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="5" t="s">
         <v>847</v>
       </c>
@@ -17903,8 +18853,11 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="5" t="s">
         <v>847</v>
       </c>
@@ -17930,8 +18883,11 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="5" t="s">
         <v>847</v>
       </c>
@@ -17957,8 +18913,11 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="5" t="s">
         <v>847</v>
       </c>
@@ -17984,8 +18943,11 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="5" t="s">
         <v>847</v>
       </c>
@@ -18011,8 +18973,11 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="5" t="s">
         <v>847</v>
       </c>
@@ -18038,8 +19003,11 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="5" t="s">
         <v>847</v>
       </c>
@@ -18065,8 +19033,11 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="5" t="s">
         <v>847</v>
       </c>
@@ -18092,8 +19063,11 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="5" t="s">
         <v>847</v>
       </c>
@@ -18119,8 +19093,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="5" t="s">
         <v>847</v>
       </c>
@@ -18146,8 +19123,11 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
         <v>847</v>
       </c>
@@ -18173,8 +19153,11 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="5" t="s">
         <v>847</v>
       </c>
@@ -18200,8 +19183,11 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="5" t="s">
         <v>847</v>
       </c>
@@ -18227,8 +19213,11 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
         <v>847</v>
       </c>
@@ -18254,8 +19243,11 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="5" t="s">
         <v>847</v>
       </c>
@@ -18281,8 +19273,11 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="5" t="s">
         <v>847</v>
       </c>
@@ -18308,8 +19303,11 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="5" t="s">
         <v>847</v>
       </c>
@@ -18335,8 +19333,11 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="5" t="s">
         <v>847</v>
       </c>
@@ -18362,8 +19363,11 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="5" t="s">
         <v>847</v>
       </c>
@@ -18389,8 +19393,11 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="5" t="s">
         <v>847</v>
       </c>
@@ -18416,8 +19423,11 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="5" t="s">
         <v>847</v>
       </c>
@@ -18443,8 +19453,11 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="5" t="s">
         <v>847</v>
       </c>
@@ -18470,8 +19483,11 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="5" t="s">
         <v>847</v>
       </c>
@@ -18497,8 +19513,11 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="5" t="s">
         <v>847</v>
       </c>
@@ -18524,8 +19543,11 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="5" t="s">
         <v>847</v>
       </c>
@@ -18551,8 +19573,11 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="5" t="s">
         <v>847</v>
       </c>
@@ -18578,8 +19603,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="5" t="s">
         <v>847</v>
       </c>
@@ -18605,8 +19633,11 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="5" t="s">
         <v>847</v>
       </c>
@@ -18632,8 +19663,11 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="5" t="s">
         <v>847</v>
       </c>
@@ -18659,8 +19693,11 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="5" t="s">
         <v>847</v>
       </c>
@@ -18686,8 +19723,11 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="5" t="s">
         <v>847</v>
       </c>
@@ -18713,8 +19753,11 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="5" t="s">
         <v>847</v>
       </c>
@@ -18740,8 +19783,11 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="5" t="s">
         <v>847</v>
       </c>
@@ -18767,8 +19813,11 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="5" t="s">
         <v>847</v>
       </c>
@@ -18794,8 +19843,11 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="5" t="s">
         <v>847</v>
       </c>
@@ -18821,8 +19873,11 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
         <v>847</v>
       </c>
@@ -18848,8 +19903,11 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="5" t="s">
         <v>847</v>
       </c>
@@ -18875,8 +19933,11 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="5" t="s">
         <v>847</v>
       </c>
@@ -18902,8 +19963,11 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="5" t="s">
         <v>847</v>
       </c>
@@ -18929,8 +19993,11 @@
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="5" t="s">
         <v>847</v>
       </c>
@@ -18956,8 +20023,11 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="5" t="s">
         <v>847</v>
       </c>
@@ -18983,8 +20053,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="5" t="s">
         <v>847</v>
       </c>
@@ -19010,8 +20083,11 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="5" t="s">
         <v>847</v>
       </c>
@@ -19037,8 +20113,11 @@
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="5" t="s">
         <v>847</v>
       </c>
@@ -19064,8 +20143,11 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="5" t="s">
         <v>847</v>
       </c>
@@ -19091,8 +20173,11 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="5" t="s">
         <v>847</v>
       </c>
@@ -19118,8 +20203,11 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="5" t="s">
         <v>847</v>
       </c>
@@ -19145,8 +20233,11 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="5" t="s">
         <v>847</v>
       </c>
@@ -19172,8 +20263,11 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="5" t="s">
         <v>847</v>
       </c>
@@ -19199,8 +20293,11 @@
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
         <v>847</v>
       </c>
@@ -19226,8 +20323,11 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="5" t="s">
         <v>847</v>
       </c>
@@ -19253,8 +20353,11 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="5" t="s">
         <v>847</v>
       </c>
@@ -19280,8 +20383,11 @@
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="5" t="s">
         <v>847</v>
       </c>
@@ -19307,8 +20413,11 @@
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="5" t="s">
         <v>847</v>
       </c>
@@ -19334,8 +20443,11 @@
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="5" t="s">
         <v>847</v>
       </c>
@@ -19361,8 +20473,11 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="5" t="s">
         <v>847</v>
       </c>
@@ -19388,8 +20503,11 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="5" t="s">
         <v>847</v>
       </c>
@@ -19415,8 +20533,11 @@
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="5" t="s">
         <v>847</v>
       </c>
@@ -19442,8 +20563,11 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="5" t="s">
         <v>847</v>
       </c>
@@ -19469,8 +20593,11 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="5" t="s">
         <v>847</v>
       </c>
@@ -19496,8 +20623,11 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="5" t="s">
         <v>847</v>
       </c>
@@ -19523,8 +20653,11 @@
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="5" t="s">
         <v>847</v>
       </c>
@@ -19550,8 +20683,11 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="5" t="s">
         <v>847</v>
       </c>
@@ -19577,8 +20713,11 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="5" t="s">
         <v>847</v>
       </c>
@@ -19604,8 +20743,11 @@
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="5" t="s">
         <v>847</v>
       </c>
@@ -19631,8 +20773,11 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="5" t="s">
         <v>847</v>
       </c>
@@ -19658,8 +20803,11 @@
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="5" t="s">
         <v>847</v>
       </c>
@@ -19685,8 +20833,11 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="5" t="s">
         <v>847</v>
       </c>
@@ -19712,8 +20863,11 @@
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="5" t="s">
         <v>847</v>
       </c>
@@ -19739,8 +20893,11 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="5" t="s">
         <v>847</v>
       </c>
@@ -19766,8 +20923,11 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="5" t="s">
         <v>847</v>
       </c>
@@ -19793,8 +20953,11 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="5" t="s">
         <v>847</v>
       </c>
@@ -19820,8 +20983,11 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="5" t="s">
         <v>847</v>
       </c>
@@ -19847,8 +21013,11 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="5" t="s">
         <v>847</v>
       </c>
@@ -19874,8 +21043,11 @@
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="5" t="s">
         <v>847</v>
       </c>
@@ -19901,8 +21073,11 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="5" t="s">
         <v>847</v>
       </c>
@@ -19928,8 +21103,11 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="5" t="s">
         <v>847</v>
       </c>
@@ -19955,8 +21133,11 @@
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="5" t="s">
         <v>847</v>
       </c>
@@ -19982,8 +21163,11 @@
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="5" t="s">
         <v>847</v>
       </c>
@@ -20009,8 +21193,11 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="5" t="s">
         <v>847</v>
       </c>
@@ -20036,8 +21223,11 @@
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="5" t="s">
         <v>847</v>
       </c>
@@ -20063,8 +21253,11 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="5" t="s">
         <v>847</v>
       </c>
@@ -20090,8 +21283,11 @@
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="5" t="s">
         <v>847</v>
       </c>
@@ -20117,8 +21313,11 @@
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="5" t="s">
         <v>847</v>
       </c>
@@ -20144,8 +21343,11 @@
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="5" t="s">
         <v>847</v>
       </c>
@@ -20171,8 +21373,11 @@
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="5" t="s">
         <v>847</v>
       </c>
@@ -20198,8 +21403,11 @@
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="5" t="s">
         <v>847</v>
       </c>
@@ -20225,8 +21433,11 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="5" t="s">
         <v>847</v>
       </c>
@@ -20252,8 +21463,11 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="5" t="s">
         <v>847</v>
       </c>
@@ -20279,8 +21493,11 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="5" t="s">
         <v>847</v>
       </c>
@@ -20306,8 +21523,11 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="5" t="s">
         <v>847</v>
       </c>
@@ -20333,8 +21553,11 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="5" t="s">
         <v>847</v>
       </c>
@@ -20360,8 +21583,11 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="5" t="s">
         <v>847</v>
       </c>
@@ -20387,8 +21613,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="5" t="s">
         <v>847</v>
       </c>
@@ -20414,8 +21643,11 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="5" t="s">
         <v>847</v>
       </c>
@@ -20441,8 +21673,11 @@
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="5" t="s">
         <v>847</v>
       </c>
@@ -20468,8 +21703,11 @@
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="5" t="s">
         <v>847</v>
       </c>
@@ -20495,8 +21733,11 @@
       <c r="G167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="5" t="s">
         <v>847</v>
       </c>
@@ -20522,8 +21763,11 @@
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="5" t="s">
         <v>847</v>
       </c>
@@ -20549,8 +21793,11 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="5" t="s">
         <v>847</v>
       </c>
@@ -20576,8 +21823,11 @@
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="5" t="s">
         <v>847</v>
       </c>
@@ -20603,8 +21853,11 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="5" t="s">
         <v>847</v>
       </c>
@@ -20630,8 +21883,11 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="5" t="s">
         <v>847</v>
       </c>
@@ -20657,8 +21913,11 @@
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="5" t="s">
         <v>847</v>
       </c>
@@ -20684,8 +21943,11 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="5" t="s">
         <v>847</v>
       </c>
@@ -20711,8 +21973,11 @@
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="5" t="s">
         <v>847</v>
       </c>
@@ -20738,8 +22003,11 @@
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="5" t="s">
         <v>847</v>
       </c>
@@ -20765,8 +22033,11 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="5" t="s">
         <v>847</v>
       </c>
@@ -20792,8 +22063,11 @@
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="5" t="s">
         <v>847</v>
       </c>
@@ -20819,8 +22093,11 @@
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="5" t="s">
         <v>847</v>
       </c>
@@ -20846,8 +22123,11 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="5" t="s">
         <v>847</v>
       </c>
@@ -20873,8 +22153,11 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="5" t="s">
         <v>847</v>
       </c>
@@ -20900,8 +22183,11 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="5" t="s">
         <v>847</v>
       </c>
@@ -20927,8 +22213,11 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="5" t="s">
         <v>847</v>
       </c>
@@ -20954,8 +22243,11 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="5" t="s">
         <v>847</v>
       </c>
@@ -20981,8 +22273,11 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="5" t="s">
         <v>847</v>
       </c>
@@ -21008,8 +22303,11 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="5" t="s">
         <v>847</v>
       </c>
@@ -21035,8 +22333,11 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="5" t="s">
         <v>847</v>
       </c>
@@ -21062,8 +22363,11 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="5" t="s">
         <v>847</v>
       </c>
@@ -21089,8 +22393,11 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="5" t="s">
         <v>847</v>
       </c>
@@ -21116,8 +22423,11 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="5" t="s">
         <v>847</v>
       </c>
@@ -21143,8 +22453,11 @@
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="5" t="s">
         <v>847</v>
       </c>
@@ -21170,8 +22483,11 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="5" t="s">
         <v>847</v>
       </c>
@@ -21197,8 +22513,11 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="5" t="s">
         <v>847</v>
       </c>
@@ -21224,8 +22543,11 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="5" t="s">
         <v>847</v>
       </c>
@@ -21251,8 +22573,11 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="5" t="s">
         <v>847</v>
       </c>
@@ -21278,8 +22603,11 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="5" t="s">
         <v>847</v>
       </c>
@@ -21305,8 +22633,11 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="5" t="s">
         <v>847</v>
       </c>
@@ -21332,8 +22663,11 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="5" t="s">
         <v>847</v>
       </c>
@@ -21359,8 +22693,11 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="5" t="s">
         <v>847</v>
       </c>
@@ -21386,8 +22723,11 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="5" t="s">
         <v>847</v>
       </c>
@@ -21413,8 +22753,11 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="5" t="s">
         <v>847</v>
       </c>
@@ -21440,8 +22783,11 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="5" t="s">
         <v>847</v>
       </c>
@@ -21467,8 +22813,11 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="5" t="s">
         <v>847</v>
       </c>
@@ -21494,8 +22843,11 @@
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="5" t="s">
         <v>847</v>
       </c>
@@ -21521,8 +22873,11 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="5" t="s">
         <v>847</v>
       </c>
@@ -21548,8 +22903,11 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="5" t="s">
         <v>847</v>
       </c>
@@ -21575,8 +22933,11 @@
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="5" t="s">
         <v>847</v>
       </c>
@@ -21602,8 +22963,11 @@
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="5" t="s">
         <v>847</v>
       </c>
@@ -21629,8 +22993,11 @@
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="5" t="s">
         <v>847</v>
       </c>
@@ -21656,8 +23023,11 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="5" t="s">
         <v>847</v>
       </c>
@@ -21683,8 +23053,11 @@
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="5" t="s">
         <v>847</v>
       </c>
@@ -21710,8 +23083,11 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="5" t="s">
         <v>847</v>
       </c>
@@ -21737,8 +23113,11 @@
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="5" t="s">
         <v>847</v>
       </c>
@@ -21764,8 +23143,11 @@
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="5" t="s">
         <v>847</v>
       </c>
@@ -21791,8 +23173,11 @@
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="5" t="s">
         <v>847</v>
       </c>
@@ -21818,8 +23203,11 @@
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="5" t="s">
         <v>847</v>
       </c>
@@ -21845,8 +23233,11 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="5" t="s">
         <v>847</v>
       </c>
@@ -21872,8 +23263,11 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="5" t="s">
         <v>847</v>
       </c>
@@ -21899,8 +23293,11 @@
       <c r="G219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="5" t="s">
         <v>847</v>
       </c>
@@ -21926,8 +23323,11 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="5" t="s">
         <v>847</v>
       </c>
@@ -21953,8 +23353,11 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="5" t="s">
         <v>847</v>
       </c>
@@ -21980,8 +23383,11 @@
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="5" t="s">
         <v>847</v>
       </c>
@@ -22007,8 +23413,11 @@
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="5" t="s">
         <v>847</v>
       </c>
@@ -22034,8 +23443,11 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="5" t="s">
         <v>847</v>
       </c>
@@ -22061,8 +23473,11 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="5" t="s">
         <v>847</v>
       </c>
@@ -22088,8 +23503,11 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="5" t="s">
         <v>847</v>
       </c>
@@ -22115,8 +23533,11 @@
       <c r="G227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="5" t="s">
         <v>847</v>
       </c>
@@ -22142,8 +23563,11 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="5" t="s">
         <v>847</v>
       </c>
@@ -22169,8 +23593,11 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="5" t="s">
         <v>847</v>
       </c>
@@ -22196,8 +23623,11 @@
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="5" t="s">
         <v>847</v>
       </c>
@@ -22223,8 +23653,11 @@
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="5" t="s">
         <v>847</v>
       </c>
@@ -22250,8 +23683,11 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="5" t="s">
         <v>847</v>
       </c>
@@ -22277,8 +23713,11 @@
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="5" t="s">
         <v>847</v>
       </c>
@@ -22304,8 +23743,11 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="5" t="s">
         <v>847</v>
       </c>
@@ -22331,8 +23773,11 @@
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="5" t="s">
         <v>847</v>
       </c>
@@ -22358,8 +23803,11 @@
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="5" t="s">
         <v>847</v>
       </c>
@@ -22385,8 +23833,11 @@
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="5" t="s">
         <v>847</v>
       </c>
@@ -22412,8 +23863,11 @@
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="5" t="s">
         <v>847</v>
       </c>
@@ -22439,8 +23893,11 @@
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="5" t="s">
         <v>847</v>
       </c>
@@ -22466,8 +23923,11 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="5" t="s">
         <v>847</v>
       </c>
@@ -22493,8 +23953,11 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="5" t="s">
         <v>847</v>
       </c>
@@ -22520,8 +23983,11 @@
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="5" t="s">
         <v>847</v>
       </c>
@@ -22547,8 +24013,11 @@
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="5" t="s">
         <v>847</v>
       </c>
@@ -22574,8 +24043,11 @@
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="5" t="s">
         <v>847</v>
       </c>
@@ -22601,38 +24073,41 @@
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="5"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:8">
       <c r="A247" s="5"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:8">
       <c r="A248" s="5"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:8">
       <c r="A249" s="5"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:8">
       <c r="A250" s="5"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:8">
       <c r="A251" s="5"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:8">
       <c r="A252" s="5"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:8">
       <c r="A253" s="5"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:8">
       <c r="A254" s="5"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:8">
       <c r="A255" s="5"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:8">
       <c r="A256" s="5"/>
     </row>
     <row r="257" spans="1:1">
